--- a/result_2019/每年 樣區數與調查者人數圖.xlsx
+++ b/result_2019/每年 樣區數與調查者人數圖.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R\test\Macaca-population-trend\result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R\test\Macaca-population-trend\result_2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22128" windowHeight="8976" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22128" windowHeight="8976"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -178,6 +178,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF317CC1"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -817,6 +822,486 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.182627107178613"/>
+          <c:y val="0.15863994761391023"/>
+          <c:w val="0.7772812547916047"/>
+          <c:h val="0.72417999130476784"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>樣區數</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="317CC1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="balanced" dir="t">
+                <a:rot lat="0" lon="0" rev="5400000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d prstMaterial="matte">
+              <a:bevelT/>
+              <a:bevelB/>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$D$4:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$E$4:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>347</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-78B8-4087-B24E-42DDDB7D53C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="468071072"/>
+        <c:axId val="468069408"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>調查者</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="13"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln w="31750">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$D$4:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$F$4:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>343</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-78B8-4087-B24E-42DDDB7D53C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="468071072"/>
+        <c:axId val="468069408"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="468071072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="468069408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="468069408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="eaVert" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                    <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US" sz="1600">
+                    <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                    <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                  </a:rPr>
+                  <a:t>數 量</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0"/>
+              <c:y val="0.43204541916922967"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="eaVert" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                  <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="468071072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="100"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.72196651964896141"/>
+          <c:y val="1.1864429522996741E-2"/>
+          <c:w val="0.24335195858249678"/>
+          <c:h val="0.15991471158129775"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
@@ -1298,7 +1783,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
@@ -1995,6 +2480,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2499,6 +3024,526 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="323">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3014,7 +4059,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3544,6 +4589,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="圖表 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3882,8 +4959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Z25" sqref="Z25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -3968,7 +5045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I16" workbookViewId="0">
+    <sheetView topLeftCell="I16" workbookViewId="0">
       <selection activeCell="Z36" sqref="Z36"/>
     </sheetView>
   </sheetViews>
@@ -4431,11 +5508,11 @@
         <v>1.0959999999999999E-2</v>
       </c>
       <c r="K27">
-        <f t="shared" ref="K26:K36" si="6">D27-E27</f>
+        <f t="shared" ref="K27:K35" si="6">D27-E27</f>
         <v>1.9599999999999999E-3</v>
       </c>
       <c r="L27">
-        <f t="shared" ref="L26:L35" si="7">F27-D27</f>
+        <f t="shared" ref="L27:L35" si="7">F27-D27</f>
         <v>1.9599999999999999E-3</v>
       </c>
     </row>
@@ -4453,11 +5530,11 @@
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="N28">
-        <f t="shared" ref="N27:N36" si="8">G28-H28</f>
+        <f t="shared" ref="N28:N36" si="8">G28-H28</f>
         <v>5.9999999999999993E-3</v>
       </c>
       <c r="O28">
-        <f t="shared" ref="O27:O36" si="9">I28-G28</f>
+        <f t="shared" ref="O28:O36" si="9">I28-G28</f>
         <v>8.0000000000000019E-3</v>
       </c>
     </row>
